--- a/data/pca/factorExposure/factorExposure_2014-08-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.001950299446823248</v>
+        <v>0.01866897242893048</v>
       </c>
       <c r="C2">
-        <v>-0.1153153072174052</v>
+        <v>-0.06694040512348362</v>
       </c>
       <c r="D2">
-        <v>0.03002535079724346</v>
+        <v>-0.03163314618786003</v>
       </c>
       <c r="E2">
-        <v>0.2203726676945474</v>
+        <v>0.03187634548572543</v>
       </c>
       <c r="F2">
-        <v>0.04830563251772703</v>
+        <v>0.09428738804611024</v>
       </c>
       <c r="G2">
-        <v>-0.06821368976552933</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1335350876824174</v>
+      </c>
+      <c r="H2">
+        <v>0.01727208435056249</v>
+      </c>
+      <c r="I2">
+        <v>0.05138078613034532</v>
+      </c>
+      <c r="J2">
+        <v>0.1138796349916364</v>
+      </c>
+      <c r="K2">
+        <v>0.03365200191185585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01509079997166345</v>
+        <v>0.01938222437734399</v>
       </c>
       <c r="C4">
-        <v>-0.1655541638725134</v>
+        <v>-0.1431590504495597</v>
       </c>
       <c r="D4">
-        <v>0.03843907282952379</v>
+        <v>-0.0652188289105914</v>
       </c>
       <c r="E4">
-        <v>0.05040589751333929</v>
+        <v>0.02292495875346574</v>
       </c>
       <c r="F4">
-        <v>-0.0657954395054472</v>
+        <v>-0.01442643935080807</v>
       </c>
       <c r="G4">
-        <v>0.0200120483324933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.07046634814669923</v>
+      </c>
+      <c r="H4">
+        <v>-0.02982410042479341</v>
+      </c>
+      <c r="I4">
+        <v>0.1009302360329413</v>
+      </c>
+      <c r="J4">
+        <v>0.03130029135381012</v>
+      </c>
+      <c r="K4">
+        <v>-0.01357472460637757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.01947240463925803</v>
+        <v>0.03865939055807312</v>
       </c>
       <c r="C6">
-        <v>-0.07518677619868701</v>
+        <v>-0.08513861322275948</v>
       </c>
       <c r="D6">
-        <v>0.05813038637376737</v>
+        <v>-0.02739103915711664</v>
       </c>
       <c r="E6">
-        <v>0.05547061930728919</v>
+        <v>0.01999002314988437</v>
       </c>
       <c r="F6">
-        <v>-0.00874447156202933</v>
+        <v>0.0531415783088373</v>
       </c>
       <c r="G6">
-        <v>0.0485546188819676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.000123987949963312</v>
+      </c>
+      <c r="H6">
+        <v>-0.05975059750285958</v>
+      </c>
+      <c r="I6">
+        <v>0.02414918089632193</v>
+      </c>
+      <c r="J6">
+        <v>-0.04716970677924081</v>
+      </c>
+      <c r="K6">
+        <v>0.03561547214321611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.00144890180944901</v>
+        <v>0.01888469976136118</v>
       </c>
       <c r="C7">
-        <v>-0.06501496683373198</v>
+        <v>-0.07041260952187063</v>
       </c>
       <c r="D7">
-        <v>0.03813262378447371</v>
+        <v>-0.03234380423910535</v>
       </c>
       <c r="E7">
-        <v>0.0107295801073086</v>
+        <v>0.01186591174505463</v>
       </c>
       <c r="F7">
-        <v>-0.03044939386943387</v>
+        <v>-0.01292592625875987</v>
       </c>
       <c r="G7">
-        <v>0.03236164247945653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.005090421557072575</v>
+      </c>
+      <c r="H7">
+        <v>-0.03288413381603368</v>
+      </c>
+      <c r="I7">
+        <v>0.09067316906098587</v>
+      </c>
+      <c r="J7">
+        <v>0.04955195910439292</v>
+      </c>
+      <c r="K7">
+        <v>0.02625930062517135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01385485504867055</v>
+        <v>0.00149868221410521</v>
       </c>
       <c r="C8">
-        <v>-0.07138019731740983</v>
+        <v>-0.0612557182238412</v>
       </c>
       <c r="D8">
-        <v>0.04535185918493443</v>
+        <v>-0.04891772113496504</v>
       </c>
       <c r="E8">
-        <v>0.05830768866303743</v>
+        <v>0.05633731304824757</v>
       </c>
       <c r="F8">
-        <v>-0.009837318013130644</v>
+        <v>0.03699118574808493</v>
       </c>
       <c r="G8">
-        <v>-0.0151937202635523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.03128848010370516</v>
+      </c>
+      <c r="H8">
+        <v>0.009515002052683285</v>
+      </c>
+      <c r="I8">
+        <v>0.05276667046521902</v>
+      </c>
+      <c r="J8">
+        <v>-0.01814973630096974</v>
+      </c>
+      <c r="K8">
+        <v>-0.007749291320099399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.007986948484768403</v>
+        <v>0.01415319867103952</v>
       </c>
       <c r="C9">
-        <v>-0.1169511143204911</v>
+        <v>-0.1007929589708956</v>
       </c>
       <c r="D9">
-        <v>0.05038630514796411</v>
+        <v>-0.04014830351403166</v>
       </c>
       <c r="E9">
-        <v>0.01311782699635703</v>
+        <v>-0.004976578608241774</v>
       </c>
       <c r="F9">
-        <v>-0.01015185216551923</v>
+        <v>-0.00341467957744961</v>
       </c>
       <c r="G9">
-        <v>0.03609217892987554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04757716658237012</v>
+      </c>
+      <c r="H9">
+        <v>-0.01471778697292726</v>
+      </c>
+      <c r="I9">
+        <v>0.1053120280812475</v>
+      </c>
+      <c r="J9">
+        <v>0.04024974171377339</v>
+      </c>
+      <c r="K9">
+        <v>0.0159431021497912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2720316055441805</v>
+        <v>0.2479260886768458</v>
       </c>
       <c r="C10">
-        <v>0.06574243213474051</v>
+        <v>0.09616278030576819</v>
       </c>
       <c r="D10">
-        <v>-0.02232772438191243</v>
+        <v>0.002770743272886386</v>
       </c>
       <c r="E10">
-        <v>-0.03421743984628582</v>
+        <v>0.04757171354686884</v>
       </c>
       <c r="F10">
-        <v>-0.008232111658586375</v>
+        <v>0.02799493695616682</v>
       </c>
       <c r="G10">
-        <v>-0.009742626117041174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03776068658466144</v>
+      </c>
+      <c r="H10">
+        <v>-0.0224015557736551</v>
+      </c>
+      <c r="I10">
+        <v>0.03481655008600275</v>
+      </c>
+      <c r="J10">
+        <v>-0.005599158221834865</v>
+      </c>
+      <c r="K10">
+        <v>-0.1535271702054322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.003575594614587468</v>
+        <v>0.0173463302687514</v>
       </c>
       <c r="C11">
-        <v>-0.06800594159865406</v>
+        <v>-0.07985321575112976</v>
       </c>
       <c r="D11">
-        <v>0.03235254010077628</v>
+        <v>-0.03830471353549193</v>
       </c>
       <c r="E11">
-        <v>-0.02191344871877405</v>
+        <v>-0.0103505568944566</v>
       </c>
       <c r="F11">
-        <v>-0.01245757043918798</v>
+        <v>-0.01164109486346451</v>
       </c>
       <c r="G11">
-        <v>0.04399666940409866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-2.898223397236707e-05</v>
+      </c>
+      <c r="H11">
+        <v>-0.01032133427634154</v>
+      </c>
+      <c r="I11">
+        <v>0.03626252454115113</v>
+      </c>
+      <c r="J11">
+        <v>0.009980656108370784</v>
+      </c>
+      <c r="K11">
+        <v>0.0289655024047136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.001582636778711815</v>
+        <v>0.01617543889175796</v>
       </c>
       <c r="C12">
-        <v>-0.04492158280126763</v>
+        <v>-0.05238727584573746</v>
       </c>
       <c r="D12">
-        <v>0.03776056896755082</v>
+        <v>-0.0259523067723909</v>
       </c>
       <c r="E12">
-        <v>-0.00965663335661709</v>
+        <v>-0.01375399839462351</v>
       </c>
       <c r="F12">
-        <v>0.01370189131849258</v>
+        <v>0.01159067003804745</v>
       </c>
       <c r="G12">
-        <v>0.0524339023101889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.005503256598203354</v>
+      </c>
+      <c r="H12">
+        <v>-0.02606760328217448</v>
+      </c>
+      <c r="I12">
+        <v>0.03317647570608014</v>
+      </c>
+      <c r="J12">
+        <v>0.001607084223870942</v>
+      </c>
+      <c r="K12">
+        <v>0.01542086595381851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.004230703083752632</v>
+        <v>0.00406542912279662</v>
       </c>
       <c r="C13">
-        <v>-0.1158504970132674</v>
+        <v>-0.1111642283914993</v>
       </c>
       <c r="D13">
-        <v>0.08264815220051434</v>
+        <v>-0.04127342276090864</v>
       </c>
       <c r="E13">
-        <v>0.05909777293082866</v>
+        <v>0.008984946495520377</v>
       </c>
       <c r="F13">
-        <v>0.05414156596745458</v>
+        <v>0.1423691093366125</v>
       </c>
       <c r="G13">
-        <v>0.1376478408837866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.08114609066980924</v>
+      </c>
+      <c r="H13">
+        <v>-0.1265305220022512</v>
+      </c>
+      <c r="I13">
+        <v>0.0913310713019122</v>
+      </c>
+      <c r="J13">
+        <v>0.1906487923309588</v>
+      </c>
+      <c r="K13">
+        <v>-0.1205058910561351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.007487217113738525</v>
+        <v>0.02095059942913862</v>
       </c>
       <c r="C14">
-        <v>-0.07070790881004869</v>
+        <v>-0.07261389471968804</v>
       </c>
       <c r="D14">
-        <v>0.04457336350826007</v>
+        <v>-0.04829460432978087</v>
       </c>
       <c r="E14">
-        <v>0.0317340584567027</v>
+        <v>-0.002051177153870037</v>
       </c>
       <c r="F14">
-        <v>0.02342061006959365</v>
+        <v>0.0471372114218938</v>
       </c>
       <c r="G14">
-        <v>0.08392988091644146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01586800320183344</v>
+      </c>
+      <c r="H14">
+        <v>-0.1063518935215604</v>
+      </c>
+      <c r="I14">
+        <v>0.1832745356239318</v>
+      </c>
+      <c r="J14">
+        <v>0.04472123116888817</v>
+      </c>
+      <c r="K14">
+        <v>0.02501127109122832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.00522622016698646</v>
+        <v>0.004661278211807861</v>
       </c>
       <c r="C15">
-        <v>-0.06651780571523172</v>
+        <v>-0.06923707699914908</v>
       </c>
       <c r="D15">
-        <v>0.03314906685008116</v>
+        <v>-0.03079940955588511</v>
       </c>
       <c r="E15">
-        <v>0.04374298358678666</v>
+        <v>0.02863534956999175</v>
       </c>
       <c r="F15">
-        <v>-0.02510260579637982</v>
+        <v>0.003973190694443096</v>
       </c>
       <c r="G15">
-        <v>0.0127129032693291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01969479324980214</v>
+      </c>
+      <c r="H15">
+        <v>-0.02520012407635741</v>
+      </c>
+      <c r="I15">
+        <v>0.07397522184989772</v>
+      </c>
+      <c r="J15">
+        <v>0.009793829754832768</v>
+      </c>
+      <c r="K15">
+        <v>0.02944725104734775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.007325184708322716</v>
+        <v>0.01608432894587197</v>
       </c>
       <c r="C16">
-        <v>-0.05849248170198364</v>
+        <v>-0.0603238909665754</v>
       </c>
       <c r="D16">
-        <v>0.03000560834473978</v>
+        <v>-0.02710392726116567</v>
       </c>
       <c r="E16">
-        <v>-0.01310883047899257</v>
+        <v>-0.01060960339508522</v>
       </c>
       <c r="F16">
-        <v>0.003507314304610881</v>
+        <v>-0.00717775885108571</v>
       </c>
       <c r="G16">
-        <v>0.03029494548637179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.001289142747718662</v>
+      </c>
+      <c r="H16">
+        <v>-0.008684670201682856</v>
+      </c>
+      <c r="I16">
+        <v>0.02560545247973117</v>
+      </c>
+      <c r="J16">
+        <v>0.005576552514526299</v>
+      </c>
+      <c r="K16">
+        <v>0.02011801501867844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.009030698482664617</v>
+        <v>0.01596695762734237</v>
       </c>
       <c r="C20">
-        <v>-0.08831897160749874</v>
+        <v>-0.08264918434810532</v>
       </c>
       <c r="D20">
-        <v>0.04255960343734543</v>
+        <v>-0.02691027186160708</v>
       </c>
       <c r="E20">
-        <v>-0.03000499079234917</v>
+        <v>0.0137280045818022</v>
       </c>
       <c r="F20">
-        <v>-0.00810087501247941</v>
+        <v>-0.02021168067816319</v>
       </c>
       <c r="G20">
-        <v>0.09542905439101466</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01041227139309895</v>
+      </c>
+      <c r="H20">
+        <v>-0.04458700349391261</v>
+      </c>
+      <c r="I20">
+        <v>0.07483172694177816</v>
+      </c>
+      <c r="J20">
+        <v>0.004411882463423776</v>
+      </c>
+      <c r="K20">
+        <v>0.01490692121390306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.002226681595673017</v>
+        <v>0.01351408492525244</v>
       </c>
       <c r="C21">
-        <v>-0.08652067572076898</v>
+        <v>-0.06924507253716282</v>
       </c>
       <c r="D21">
-        <v>-0.01015266253637057</v>
+        <v>-0.01921528795960005</v>
       </c>
       <c r="E21">
-        <v>0.04019378998718819</v>
+        <v>0.004807362355549694</v>
       </c>
       <c r="F21">
-        <v>0.0674912667073027</v>
+        <v>0.09956960315146342</v>
       </c>
       <c r="G21">
-        <v>0.0311535010053324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01339204118629188</v>
+      </c>
+      <c r="H21">
+        <v>-0.02809846259108022</v>
+      </c>
+      <c r="I21">
+        <v>0.125297084455626</v>
+      </c>
+      <c r="J21">
+        <v>0.06816214533646352</v>
+      </c>
+      <c r="K21">
+        <v>0.004024547955968851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.009660707659348724</v>
+        <v>0.006873538010223459</v>
       </c>
       <c r="C22">
-        <v>-0.2430140343135511</v>
+        <v>-0.1734824778656291</v>
       </c>
       <c r="D22">
-        <v>-0.07159165795174885</v>
+        <v>-0.02056457059124813</v>
       </c>
       <c r="E22">
-        <v>0.3156435656988593</v>
+        <v>0.2256864255720635</v>
       </c>
       <c r="F22">
-        <v>-0.3086512161292619</v>
+        <v>0.05911249009710968</v>
       </c>
       <c r="G22">
-        <v>-0.06223679351831153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.4702562024753046</v>
+      </c>
+      <c r="H22">
+        <v>0.003312971987377039</v>
+      </c>
+      <c r="I22">
+        <v>-0.3114977463032512</v>
+      </c>
+      <c r="J22">
+        <v>-0.07969866141102079</v>
+      </c>
+      <c r="K22">
+        <v>0.0236957780503867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.01057373928076196</v>
+        <v>0.01204016235961118</v>
       </c>
       <c r="C23">
-        <v>-0.2471871651532856</v>
+        <v>-0.1768788291922815</v>
       </c>
       <c r="D23">
-        <v>-0.07613261215178667</v>
+        <v>-0.02021282553474861</v>
       </c>
       <c r="E23">
-        <v>0.3104892407648576</v>
+        <v>0.2160069154661921</v>
       </c>
       <c r="F23">
-        <v>-0.3038193349123829</v>
+        <v>0.05808559037216785</v>
       </c>
       <c r="G23">
-        <v>-0.06193771481732837</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.4592241441175683</v>
+      </c>
+      <c r="H23">
+        <v>0.001938679373776121</v>
+      </c>
+      <c r="I23">
+        <v>-0.2889198450068392</v>
+      </c>
+      <c r="J23">
+        <v>-0.0740990494084571</v>
+      </c>
+      <c r="K23">
+        <v>0.02848615506503011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.002340116393228618</v>
+        <v>0.01679576377905048</v>
       </c>
       <c r="C24">
-        <v>-0.05557441992776033</v>
+        <v>-0.06299450876917412</v>
       </c>
       <c r="D24">
-        <v>0.04430686561979087</v>
+        <v>-0.04025744124483173</v>
       </c>
       <c r="E24">
-        <v>-0.01299941486568923</v>
+        <v>-0.007445774342582254</v>
       </c>
       <c r="F24">
-        <v>-0.009400634079500383</v>
+        <v>-0.008297516052886523</v>
       </c>
       <c r="G24">
-        <v>0.05639670443746105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.001535361536018272</v>
+      </c>
+      <c r="H24">
+        <v>-0.02464511611811146</v>
+      </c>
+      <c r="I24">
+        <v>0.04206688032568238</v>
+      </c>
+      <c r="J24">
+        <v>0.01621966571805676</v>
+      </c>
+      <c r="K24">
+        <v>0.02648996692228699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.003096903490372074</v>
+        <v>0.02098098808849929</v>
       </c>
       <c r="C25">
-        <v>-0.06359564712034267</v>
+        <v>-0.06553354991120156</v>
       </c>
       <c r="D25">
-        <v>0.02352645158488909</v>
+        <v>-0.0326443712585952</v>
       </c>
       <c r="E25">
-        <v>-0.01972501593344681</v>
+        <v>-0.00640251249887546</v>
       </c>
       <c r="F25">
-        <v>-0.003214476626342446</v>
+        <v>-0.008048379806036817</v>
       </c>
       <c r="G25">
-        <v>0.05145438007421681</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.005118629367815659</v>
+      </c>
+      <c r="H25">
+        <v>-0.01641557212670124</v>
+      </c>
+      <c r="I25">
+        <v>0.0375682298110956</v>
+      </c>
+      <c r="J25">
+        <v>0.01574614602310317</v>
+      </c>
+      <c r="K25">
+        <v>0.01337758348368107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.005601224230169037</v>
+        <v>0.02314212812959948</v>
       </c>
       <c r="C26">
-        <v>-0.05030942872441935</v>
+        <v>-0.05514721557930831</v>
       </c>
       <c r="D26">
-        <v>0.07917246504021475</v>
+        <v>-0.06289300395727393</v>
       </c>
       <c r="E26">
-        <v>-6.039382942649456e-05</v>
+        <v>-0.004390983421945664</v>
       </c>
       <c r="F26">
-        <v>0.0239523706119921</v>
+        <v>-0.009655496609307323</v>
       </c>
       <c r="G26">
-        <v>0.07081312647732702</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.003250514497428913</v>
+      </c>
+      <c r="H26">
+        <v>3.403514946859334e-05</v>
+      </c>
+      <c r="I26">
+        <v>0.1015801482105766</v>
+      </c>
+      <c r="J26">
+        <v>0.06804062030048319</v>
+      </c>
+      <c r="K26">
+        <v>0.05608732685940341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3666022801632849</v>
+        <v>0.3101170045648257</v>
       </c>
       <c r="C28">
-        <v>0.0775069185699897</v>
+        <v>0.1146076007727028</v>
       </c>
       <c r="D28">
-        <v>-0.01827192586006034</v>
+        <v>0.03268937314948871</v>
       </c>
       <c r="E28">
-        <v>-0.05198997769582125</v>
+        <v>0.02841851421976697</v>
       </c>
       <c r="F28">
-        <v>0.06506184936070539</v>
+        <v>0.02739383241340605</v>
       </c>
       <c r="G28">
-        <v>-0.08731402893790181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.03713629344517317</v>
+      </c>
+      <c r="H28">
+        <v>0.1061821667672571</v>
+      </c>
+      <c r="I28">
+        <v>0.07039445696488801</v>
+      </c>
+      <c r="J28">
+        <v>0.02634777207575274</v>
+      </c>
+      <c r="K28">
+        <v>-0.2078284383167926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.007367848970332645</v>
+        <v>0.01739963604538217</v>
       </c>
       <c r="C29">
-        <v>-0.07807655482831924</v>
+        <v>-0.08251522345463581</v>
       </c>
       <c r="D29">
-        <v>0.04987143313562496</v>
+        <v>-0.04986650336783283</v>
       </c>
       <c r="E29">
-        <v>0.01329281174171042</v>
+        <v>-0.02027264221321483</v>
       </c>
       <c r="F29">
-        <v>0.02418338890854541</v>
+        <v>0.04509572154132632</v>
       </c>
       <c r="G29">
-        <v>0.1192923236821233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.009213085580353603</v>
+      </c>
+      <c r="H29">
+        <v>-0.1581255689146195</v>
+      </c>
+      <c r="I29">
+        <v>0.2592387974837937</v>
+      </c>
+      <c r="J29">
+        <v>0.0599722025731843</v>
+      </c>
+      <c r="K29">
+        <v>0.01395226932816555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.01973848684099109</v>
+        <v>0.03408858180520154</v>
       </c>
       <c r="C30">
-        <v>-0.1667591120258643</v>
+        <v>-0.1431769383153639</v>
       </c>
       <c r="D30">
-        <v>0.07408725601903886</v>
+        <v>-0.05572754024885516</v>
       </c>
       <c r="E30">
-        <v>0.03115442972199563</v>
+        <v>0.04325676855459317</v>
       </c>
       <c r="F30">
-        <v>-0.05524404144266408</v>
+        <v>0.008976119996118999</v>
       </c>
       <c r="G30">
-        <v>0.03044668136002506</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.03886636043698466</v>
+      </c>
+      <c r="H30">
+        <v>-0.01683095688746562</v>
+      </c>
+      <c r="I30">
+        <v>0.03843221524175598</v>
+      </c>
+      <c r="J30">
+        <v>-0.01076187364747127</v>
+      </c>
+      <c r="K30">
+        <v>0.04258022861892079</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.003440462829429308</v>
+        <v>0.0155645842376301</v>
       </c>
       <c r="C31">
-        <v>-0.05054691789109238</v>
+        <v>-0.07699280283841682</v>
       </c>
       <c r="D31">
-        <v>0.03410703118175756</v>
+        <v>-0.04129280585003509</v>
       </c>
       <c r="E31">
-        <v>-0.01512926777545621</v>
+        <v>0.002801422565680708</v>
       </c>
       <c r="F31">
-        <v>0.009665575098330537</v>
+        <v>0.002537132416232195</v>
       </c>
       <c r="G31">
-        <v>0.0169839919562978</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.006588862301498351</v>
+      </c>
+      <c r="H31">
+        <v>0.02232146546177955</v>
+      </c>
+      <c r="I31">
+        <v>0.04123716765696935</v>
+      </c>
+      <c r="J31">
+        <v>0.005746796938058938</v>
+      </c>
+      <c r="K31">
+        <v>0.009458210468020565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01720289305437343</v>
+        <v>0.02224954144184915</v>
       </c>
       <c r="C32">
-        <v>-0.07313933755421674</v>
+        <v>-0.05012231233349611</v>
       </c>
       <c r="D32">
-        <v>0.007129566591167987</v>
+        <v>-0.02363730168769881</v>
       </c>
       <c r="E32">
-        <v>0.1499039424878304</v>
+        <v>0.00996058076025514</v>
       </c>
       <c r="F32">
-        <v>-0.009203323411237295</v>
+        <v>0.08459513808074097</v>
       </c>
       <c r="G32">
-        <v>0.0885117232889089</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.07571079103519654</v>
+      </c>
+      <c r="H32">
+        <v>-0.08953698544546035</v>
+      </c>
+      <c r="I32">
+        <v>0.1446069572015813</v>
+      </c>
+      <c r="J32">
+        <v>0.09569735632299695</v>
+      </c>
+      <c r="K32">
+        <v>-0.2505144944366528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.008418249999819489</v>
+        <v>0.01765850240664043</v>
       </c>
       <c r="C33">
-        <v>-0.0891188333140276</v>
+        <v>-0.102058544843377</v>
       </c>
       <c r="D33">
-        <v>0.06692170762808053</v>
+        <v>-0.05263510829819718</v>
       </c>
       <c r="E33">
-        <v>0.01075288789513002</v>
+        <v>0.01444083762549703</v>
       </c>
       <c r="F33">
-        <v>0.00859315328258186</v>
+        <v>0.0003781988514345089</v>
       </c>
       <c r="G33">
-        <v>0.04921458430469422</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01608832802195848</v>
+      </c>
+      <c r="H33">
+        <v>-0.02944189845313659</v>
+      </c>
+      <c r="I33">
+        <v>0.05632746700195879</v>
+      </c>
+      <c r="J33">
+        <v>0.0240794561273393</v>
+      </c>
+      <c r="K33">
+        <v>-0.01884902612240947</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.001872946147728984</v>
+        <v>0.01817939592950529</v>
       </c>
       <c r="C34">
-        <v>-0.05319583490072913</v>
+        <v>-0.04920761521384632</v>
       </c>
       <c r="D34">
-        <v>0.02385437784325068</v>
+        <v>-0.02124754501873377</v>
       </c>
       <c r="E34">
-        <v>-0.002725776928805275</v>
+        <v>-0.009695155386284566</v>
       </c>
       <c r="F34">
-        <v>0.0178509012587462</v>
+        <v>-0.0001881135814308899</v>
       </c>
       <c r="G34">
-        <v>0.04017982446226898</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.007137328716208704</v>
+      </c>
+      <c r="H34">
+        <v>-0.02115569892049503</v>
+      </c>
+      <c r="I34">
+        <v>0.01027872212580337</v>
+      </c>
+      <c r="J34">
+        <v>-0.01909212763546637</v>
+      </c>
+      <c r="K34">
+        <v>0.01142233982047899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.001997096527482008</v>
+        <v>0.01067301221118497</v>
       </c>
       <c r="C35">
-        <v>-0.02798529919084649</v>
+        <v>-0.04534221175040141</v>
       </c>
       <c r="D35">
-        <v>0.008893041036493139</v>
+        <v>-0.02182910965251</v>
       </c>
       <c r="E35">
-        <v>0.004698229809620617</v>
+        <v>0.006189474426653162</v>
       </c>
       <c r="F35">
-        <v>0.00594657701207967</v>
+        <v>0.01627971381485945</v>
       </c>
       <c r="G35">
-        <v>0.04123850143236413</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.002921917736029913</v>
+      </c>
+      <c r="H35">
+        <v>-0.06879165965208846</v>
+      </c>
+      <c r="I35">
+        <v>0.1457084114224748</v>
+      </c>
+      <c r="J35">
+        <v>0.01153213879585266</v>
+      </c>
+      <c r="K35">
+        <v>-0.01054280637978829</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.007103590802472843</v>
+        <v>0.01435176935018665</v>
       </c>
       <c r="C36">
-        <v>-0.0534919162401369</v>
+        <v>-0.04566535760102654</v>
       </c>
       <c r="D36">
-        <v>0.06108341650660262</v>
+        <v>-0.04440013973565825</v>
       </c>
       <c r="E36">
-        <v>-0.006228903922334361</v>
+        <v>0.01468543821246865</v>
       </c>
       <c r="F36">
-        <v>0.008627046320989224</v>
+        <v>0.005250012135347101</v>
       </c>
       <c r="G36">
-        <v>0.04672113195242941</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.00907555428545233</v>
+      </c>
+      <c r="H36">
+        <v>-0.002009097340545006</v>
+      </c>
+      <c r="I36">
+        <v>0.0768585879640683</v>
+      </c>
+      <c r="J36">
+        <v>0.0485429358130952</v>
+      </c>
+      <c r="K36">
+        <v>0.01674230788888934</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02962206983744286</v>
+        <v>0.01003401253147043</v>
       </c>
       <c r="C38">
-        <v>-0.04848439615911194</v>
+        <v>-0.05770953082931599</v>
       </c>
       <c r="D38">
-        <v>0.04365429038629937</v>
+        <v>-0.03845407370826291</v>
       </c>
       <c r="E38">
-        <v>-0.01276044762943312</v>
+        <v>0.05134006392183731</v>
       </c>
       <c r="F38">
-        <v>0.005683114338350503</v>
+        <v>-0.01132431337369253</v>
       </c>
       <c r="G38">
-        <v>0.05047416977118598</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.001382423148711737</v>
+      </c>
+      <c r="H38">
+        <v>-0.02130593790318383</v>
+      </c>
+      <c r="I38">
+        <v>0.06789980528927314</v>
+      </c>
+      <c r="J38">
+        <v>0.03005673317322504</v>
+      </c>
+      <c r="K38">
+        <v>-0.06336303563145833</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.001344226433636222</v>
+        <v>0.02446945532229454</v>
       </c>
       <c r="C39">
-        <v>-0.1230674071102812</v>
+        <v>-0.132529832545214</v>
       </c>
       <c r="D39">
-        <v>0.06246106405740876</v>
+        <v>-0.06028981579830093</v>
       </c>
       <c r="E39">
-        <v>-0.009010498239835739</v>
+        <v>0.001980165894388561</v>
       </c>
       <c r="F39">
-        <v>0.006801275806637194</v>
+        <v>0.01010330818917386</v>
       </c>
       <c r="G39">
-        <v>0.08110910141088759</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.02394592124119406</v>
+      </c>
+      <c r="H39">
+        <v>-0.04456526375001946</v>
+      </c>
+      <c r="I39">
+        <v>0.04186525242813147</v>
+      </c>
+      <c r="J39">
+        <v>-0.01552214098860533</v>
+      </c>
+      <c r="K39">
+        <v>0.09238590107593429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.003352501454681532</v>
+        <v>0.01460358408633499</v>
       </c>
       <c r="C40">
-        <v>-0.03132111674627241</v>
+        <v>-0.05788823286652428</v>
       </c>
       <c r="D40">
-        <v>0.03172335125451961</v>
+        <v>-0.04467975870780392</v>
       </c>
       <c r="E40">
-        <v>0.125356125186962</v>
+        <v>0.002325699977373703</v>
       </c>
       <c r="F40">
-        <v>-0.06912700729240238</v>
+        <v>0.03727979870891642</v>
       </c>
       <c r="G40">
-        <v>0.09504097162079753</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.01478335025229761</v>
+      </c>
+      <c r="H40">
+        <v>-0.1543754701427884</v>
+      </c>
+      <c r="I40">
+        <v>0.01857362151646716</v>
+      </c>
+      <c r="J40">
+        <v>0.01923330508671528</v>
+      </c>
+      <c r="K40">
+        <v>0.0464658470429101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01111667756739886</v>
+        <v>0.02215926439506994</v>
       </c>
       <c r="C41">
-        <v>-0.02336398701980428</v>
+        <v>-0.04698838725634755</v>
       </c>
       <c r="D41">
-        <v>0.004700930655349623</v>
+        <v>-0.01499033736128236</v>
       </c>
       <c r="E41">
-        <v>-0.002607123874369172</v>
+        <v>-0.006622431450993424</v>
       </c>
       <c r="F41">
-        <v>0.01573699339240866</v>
+        <v>-0.003636778581006663</v>
       </c>
       <c r="G41">
-        <v>-0.03784133202410347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01333393560961113</v>
+      </c>
+      <c r="H41">
+        <v>0.00625121275575889</v>
+      </c>
+      <c r="I41">
+        <v>0.02175198007496824</v>
+      </c>
+      <c r="J41">
+        <v>0.02058910024713868</v>
+      </c>
+      <c r="K41">
+        <v>-0.02717704250877302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.004379343686103733</v>
+        <v>0.01919804057298181</v>
       </c>
       <c r="C43">
-        <v>-0.0226417174229239</v>
+        <v>-0.04374989147639124</v>
       </c>
       <c r="D43">
-        <v>0.02289946540766297</v>
+        <v>-0.02929378564611646</v>
       </c>
       <c r="E43">
-        <v>-0.004633077580536774</v>
+        <v>0.005964714033393913</v>
       </c>
       <c r="F43">
-        <v>-7.771217182915724e-05</v>
+        <v>-0.01047242838949857</v>
       </c>
       <c r="G43">
-        <v>-0.002582949937967439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.009629999418957584</v>
+      </c>
+      <c r="H43">
+        <v>-0.006818812907336682</v>
+      </c>
+      <c r="I43">
+        <v>0.03257442428744651</v>
+      </c>
+      <c r="J43">
+        <v>0.02050698396234746</v>
+      </c>
+      <c r="K43">
+        <v>0.002843274050944025</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01884370617593965</v>
+        <v>0.0163596528917279</v>
       </c>
       <c r="C44">
-        <v>-0.101325904664038</v>
+        <v>-0.09713641274462465</v>
       </c>
       <c r="D44">
-        <v>0.03737381219528994</v>
+        <v>-0.05810628956172378</v>
       </c>
       <c r="E44">
-        <v>0.02877567732944429</v>
+        <v>0.05494005601877152</v>
       </c>
       <c r="F44">
-        <v>-0.03101423832216555</v>
+        <v>-0.001576434100875666</v>
       </c>
       <c r="G44">
-        <v>0.07095337419081146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04862569825244306</v>
+      </c>
+      <c r="H44">
+        <v>-0.0531420948725468</v>
+      </c>
+      <c r="I44">
+        <v>0.04230795665805157</v>
+      </c>
+      <c r="J44">
+        <v>0.02844597836074176</v>
+      </c>
+      <c r="K44">
+        <v>0.05071576129773859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.00592914041778847</v>
+        <v>0.004874541665810893</v>
       </c>
       <c r="C46">
-        <v>-0.05769696030844403</v>
+        <v>-0.06379364406613433</v>
       </c>
       <c r="D46">
-        <v>0.04770990656444801</v>
+        <v>-0.02857233868692437</v>
       </c>
       <c r="E46">
-        <v>0.0179246910072705</v>
+        <v>0.00395619275927281</v>
       </c>
       <c r="F46">
-        <v>0.006593133841060497</v>
+        <v>0.008666488068087863</v>
       </c>
       <c r="G46">
-        <v>0.05602512446883584</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01094344326014329</v>
+      </c>
+      <c r="H46">
+        <v>-0.04584591819743852</v>
+      </c>
+      <c r="I46">
+        <v>0.08509914897971971</v>
+      </c>
+      <c r="J46">
+        <v>0.05159163897357787</v>
+      </c>
+      <c r="K46">
+        <v>0.01966679340414064</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.005229532052263537</v>
+        <v>0.02251315034611924</v>
       </c>
       <c r="C47">
-        <v>-0.05729141997278227</v>
+        <v>-0.07246907388463933</v>
       </c>
       <c r="D47">
-        <v>0.05706951477789189</v>
+        <v>-0.04301850045586148</v>
       </c>
       <c r="E47">
-        <v>-0.01985775147962373</v>
+        <v>-0.01437062221577791</v>
       </c>
       <c r="F47">
-        <v>0.04950066514652957</v>
+        <v>-0.003783092626816521</v>
       </c>
       <c r="G47">
-        <v>0.03239437463994003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.007449707145475513</v>
+      </c>
+      <c r="H47">
+        <v>-0.01086409524882828</v>
+      </c>
+      <c r="I47">
+        <v>0.06898243019666959</v>
+      </c>
+      <c r="J47">
+        <v>0.03055616152567422</v>
+      </c>
+      <c r="K47">
+        <v>-0.01452103678492084</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.007849225295460704</v>
+        <v>0.01741202028799333</v>
       </c>
       <c r="C48">
-        <v>-0.05933227267927799</v>
+        <v>-0.0440509493877141</v>
       </c>
       <c r="D48">
-        <v>0.06857160541567933</v>
+        <v>-0.05293106320189778</v>
       </c>
       <c r="E48">
-        <v>-0.007030668121166522</v>
+        <v>0.005338239506602883</v>
       </c>
       <c r="F48">
-        <v>-0.002943541424690728</v>
+        <v>-0.006168921609849321</v>
       </c>
       <c r="G48">
-        <v>0.06051630224160626</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.0181430220167893</v>
+      </c>
+      <c r="H48">
+        <v>-0.002180338964338315</v>
+      </c>
+      <c r="I48">
+        <v>0.1035200544320912</v>
+      </c>
+      <c r="J48">
+        <v>0.0654954665239581</v>
+      </c>
+      <c r="K48">
+        <v>0.03448104219813376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02077716734210413</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.04752177482655034</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.008860315370288887</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.03071613793372659</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.02725653522825908</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.07048742070876308</v>
+      </c>
+      <c r="H49">
+        <v>-0.0549827666320663</v>
+      </c>
+      <c r="I49">
+        <v>-0.04137875905563829</v>
+      </c>
+      <c r="J49">
+        <v>-0.09742947305607051</v>
+      </c>
+      <c r="K49">
+        <v>0.04960332673105696</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.0004500922191278099</v>
+        <v>0.01581040370384642</v>
       </c>
       <c r="C50">
-        <v>-0.06392794199577952</v>
+        <v>-0.07570526838040162</v>
       </c>
       <c r="D50">
-        <v>0.03174658120286197</v>
+        <v>-0.03178105087557596</v>
       </c>
       <c r="E50">
-        <v>-0.005035410599585307</v>
+        <v>0.005987550509878826</v>
       </c>
       <c r="F50">
-        <v>-0.007306062785930036</v>
+        <v>-0.006252473085713614</v>
       </c>
       <c r="G50">
-        <v>0.03148554740770955</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01435592471452989</v>
+      </c>
+      <c r="H50">
+        <v>0.001123600985361452</v>
+      </c>
+      <c r="I50">
+        <v>0.06834182978128477</v>
+      </c>
+      <c r="J50">
+        <v>0.002303042603644671</v>
+      </c>
+      <c r="K50">
+        <v>-0.04977972072071426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.0008360322447067898</v>
+        <v>-0.004398987995392267</v>
       </c>
       <c r="C51">
-        <v>-0.07037594245018992</v>
+        <v>-0.03576190242291512</v>
       </c>
       <c r="D51">
-        <v>0.04235519301682124</v>
+        <v>-0.02620880775440783</v>
       </c>
       <c r="E51">
-        <v>0.03467139738888219</v>
+        <v>0.03102351114272808</v>
       </c>
       <c r="F51">
-        <v>0.0002334289431938424</v>
+        <v>0.02474492988622578</v>
       </c>
       <c r="G51">
-        <v>-0.004358038777474097</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.007753893219771326</v>
+      </c>
+      <c r="H51">
+        <v>-0.02858430478468747</v>
+      </c>
+      <c r="I51">
+        <v>0.08407090308940934</v>
+      </c>
+      <c r="J51">
+        <v>0.07178677446335593</v>
+      </c>
+      <c r="K51">
+        <v>0.03571514109097871</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.02863156940458327</v>
+        <v>0.06057699316943214</v>
       </c>
       <c r="C53">
-        <v>-0.1212025999485163</v>
+        <v>-0.1315781399652775</v>
       </c>
       <c r="D53">
-        <v>0.07142120749775635</v>
+        <v>-0.0582846449814289</v>
       </c>
       <c r="E53">
-        <v>-0.1259387107682173</v>
+        <v>-0.05439171544595424</v>
       </c>
       <c r="F53">
-        <v>0.05433228581367822</v>
+        <v>-0.01069547038940115</v>
       </c>
       <c r="G53">
-        <v>-0.07233429681406678</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04026992209173128</v>
+      </c>
+      <c r="H53">
+        <v>0.09302650646896869</v>
+      </c>
+      <c r="I53">
+        <v>-0.01226695490413082</v>
+      </c>
+      <c r="J53">
+        <v>-0.00171191702182402</v>
+      </c>
+      <c r="K53">
+        <v>-0.01777955635330905</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.0005397153895570688</v>
+        <v>0.01649132341659869</v>
       </c>
       <c r="C54">
-        <v>-0.0675909343534533</v>
+        <v>-0.06974681839304546</v>
       </c>
       <c r="D54">
-        <v>0.01332251989875462</v>
+        <v>-0.01271048886800065</v>
       </c>
       <c r="E54">
-        <v>-0.01866139611352201</v>
+        <v>-0.01489095832331801</v>
       </c>
       <c r="F54">
-        <v>-0.001602720707251385</v>
+        <v>-0.004974076627516638</v>
       </c>
       <c r="G54">
-        <v>0.03378902582767985</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.003142977322967099</v>
+      </c>
+      <c r="H54">
+        <v>-0.02058527475737681</v>
+      </c>
+      <c r="I54">
+        <v>0.05990190593274409</v>
+      </c>
+      <c r="J54">
+        <v>0.02295613160653029</v>
+      </c>
+      <c r="K54">
+        <v>0.02512673598537055</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01206819553221455</v>
+        <v>0.0307054677346146</v>
       </c>
       <c r="C55">
-        <v>-0.08282345897930643</v>
+        <v>-0.08308512416218096</v>
       </c>
       <c r="D55">
-        <v>0.06582328486274872</v>
+        <v>-0.05402701312044754</v>
       </c>
       <c r="E55">
-        <v>-0.0563095875336888</v>
+        <v>-0.04214664808762591</v>
       </c>
       <c r="F55">
-        <v>0.03874242299467006</v>
+        <v>-0.01412387624519161</v>
       </c>
       <c r="G55">
-        <v>-0.008266784652233676</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02164369914518979</v>
+      </c>
+      <c r="H55">
+        <v>0.0412701527411239</v>
+      </c>
+      <c r="I55">
+        <v>-0.001819319056431552</v>
+      </c>
+      <c r="J55">
+        <v>0.008752579379484713</v>
+      </c>
+      <c r="K55">
+        <v>0.01128304358002532</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.009488617469462425</v>
+        <v>0.04846139705971746</v>
       </c>
       <c r="C56">
-        <v>-0.1521714348865969</v>
+        <v>-0.1535832266414802</v>
       </c>
       <c r="D56">
-        <v>0.07403778252261523</v>
+        <v>-0.08156488703499554</v>
       </c>
       <c r="E56">
-        <v>-0.0952635638191013</v>
+        <v>-0.1049700043467945</v>
       </c>
       <c r="F56">
-        <v>0.0826558400653699</v>
+        <v>0.003415687265213687</v>
       </c>
       <c r="G56">
-        <v>-0.1184636495956789</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.05786814366128068</v>
+      </c>
+      <c r="H56">
+        <v>0.1661005506338404</v>
+      </c>
+      <c r="I56">
+        <v>-0.009400991737749312</v>
+      </c>
+      <c r="J56">
+        <v>-0.02847085912597215</v>
+      </c>
+      <c r="K56">
+        <v>-0.001548700335908556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02016973742601133</v>
+        <v>0.01866079513021521</v>
       </c>
       <c r="C58">
-        <v>-0.2928920198170856</v>
+        <v>-0.1769012867724043</v>
       </c>
       <c r="D58">
-        <v>-0.002050867365315307</v>
+        <v>-0.04609072400341847</v>
       </c>
       <c r="E58">
-        <v>0.1491853801020801</v>
+        <v>0.2616018217691591</v>
       </c>
       <c r="F58">
-        <v>-0.2436377148454948</v>
+        <v>0.0955366393060423</v>
       </c>
       <c r="G58">
-        <v>-0.07143927828535344</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.2406863443209663</v>
+      </c>
+      <c r="H58">
+        <v>0.073553156690099</v>
+      </c>
+      <c r="I58">
+        <v>0.02787459108305631</v>
+      </c>
+      <c r="J58">
+        <v>0.1531239009509071</v>
+      </c>
+      <c r="K58">
+        <v>-0.09906772732966035</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2887142969237681</v>
+        <v>0.2883085278512659</v>
       </c>
       <c r="C59">
-        <v>-0.005816124491804619</v>
+        <v>0.05294706880037373</v>
       </c>
       <c r="D59">
-        <v>-0.00360574192722218</v>
+        <v>0.005904386191479607</v>
       </c>
       <c r="E59">
-        <v>0.05523885415524132</v>
+        <v>0.02026584766877052</v>
       </c>
       <c r="F59">
-        <v>0.04982623070070839</v>
+        <v>0.03315163722937069</v>
       </c>
       <c r="G59">
-        <v>-0.004008320245929471</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.03854032053066558</v>
+      </c>
+      <c r="H59">
+        <v>0.004564405775886294</v>
+      </c>
+      <c r="I59">
+        <v>-0.02662577454262956</v>
+      </c>
+      <c r="J59">
+        <v>0.001065995028621104</v>
+      </c>
+      <c r="K59">
+        <v>-0.03597735840982536</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1019903519907553</v>
+        <v>0.1528723975107842</v>
       </c>
       <c r="C60">
-        <v>-0.1454993056200626</v>
+        <v>-0.1567971299540899</v>
       </c>
       <c r="D60">
-        <v>0.08267953802444364</v>
+        <v>-0.03899100558742518</v>
       </c>
       <c r="E60">
-        <v>-0.1013349885004009</v>
+        <v>-0.178117126795394</v>
       </c>
       <c r="F60">
-        <v>0.1682972449491288</v>
+        <v>-0.04339573871614974</v>
       </c>
       <c r="G60">
-        <v>0.2771891422967637</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05602655539919919</v>
+      </c>
+      <c r="H60">
+        <v>-0.2220801631425589</v>
+      </c>
+      <c r="I60">
+        <v>-0.2491713769532224</v>
+      </c>
+      <c r="J60">
+        <v>-0.01901284631221506</v>
+      </c>
+      <c r="K60">
+        <v>0.01861076597455833</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.0009041842901457321</v>
+        <v>0.02470448964698611</v>
       </c>
       <c r="C61">
-        <v>-0.07666320536437245</v>
+        <v>-0.09803888370362882</v>
       </c>
       <c r="D61">
-        <v>0.06654496354739307</v>
+        <v>-0.05470152448654227</v>
       </c>
       <c r="E61">
-        <v>-0.02264822048511361</v>
+        <v>-0.01830343267845354</v>
       </c>
       <c r="F61">
-        <v>0.02287724606471478</v>
+        <v>-0.004951126676828725</v>
       </c>
       <c r="G61">
-        <v>0.08221687688430095</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02287632644424888</v>
+      </c>
+      <c r="H61">
+        <v>-0.03238137205420301</v>
+      </c>
+      <c r="I61">
+        <v>0.05878020230349539</v>
+      </c>
+      <c r="J61">
+        <v>-0.01698753627417785</v>
+      </c>
+      <c r="K61">
+        <v>0.03597279483592759</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002523958598673899</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01390660875015425</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003153207538977853</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.008441998428136342</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01336783595544618</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.0309923145853493</v>
+      </c>
+      <c r="H62">
+        <v>-0.01897095715413508</v>
+      </c>
+      <c r="I62">
+        <v>0.01984467305210615</v>
+      </c>
+      <c r="J62">
+        <v>-0.00967232611467983</v>
+      </c>
+      <c r="K62">
+        <v>-0.009197319662797122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.003412424634139041</v>
+        <v>0.02701454667954068</v>
       </c>
       <c r="C63">
-        <v>-0.05792183045740462</v>
+        <v>-0.06416224037522508</v>
       </c>
       <c r="D63">
-        <v>0.04026642534558292</v>
+        <v>-0.05926190822100332</v>
       </c>
       <c r="E63">
-        <v>-0.02044321856540495</v>
+        <v>-0.0143126993174248</v>
       </c>
       <c r="F63">
-        <v>0.0025110041534252</v>
+        <v>-0.001641212703476153</v>
       </c>
       <c r="G63">
-        <v>0.008187664031765796</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.002974545870232939</v>
+      </c>
+      <c r="H63">
+        <v>-0.005074221921621852</v>
+      </c>
+      <c r="I63">
+        <v>0.07266007729979396</v>
+      </c>
+      <c r="J63">
+        <v>0.001897544654291081</v>
+      </c>
+      <c r="K63">
+        <v>0.01614106866400223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.004730419891131646</v>
+        <v>0.01859869734652054</v>
       </c>
       <c r="C64">
-        <v>-0.08129011191294518</v>
+        <v>-0.09004442911161745</v>
       </c>
       <c r="D64">
-        <v>0.06884108687483999</v>
+        <v>-0.03413637493887444</v>
       </c>
       <c r="E64">
-        <v>-0.005447451215317662</v>
+        <v>-0.002101282960189251</v>
       </c>
       <c r="F64">
-        <v>-0.01581356101016206</v>
+        <v>-0.02570125494110468</v>
       </c>
       <c r="G64">
-        <v>0.05671797793816217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.04428713731244586</v>
+      </c>
+      <c r="H64">
+        <v>-0.06630030181033174</v>
+      </c>
+      <c r="I64">
+        <v>0.04985506922683873</v>
+      </c>
+      <c r="J64">
+        <v>0.002664227938741794</v>
+      </c>
+      <c r="K64">
+        <v>0.08125758327123488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.0007765883114420195</v>
+        <v>0.03238581685068538</v>
       </c>
       <c r="C65">
-        <v>-0.08469749991010593</v>
+        <v>-0.09273938404646198</v>
       </c>
       <c r="D65">
-        <v>0.0359624379401032</v>
+        <v>-0.02232103676494118</v>
       </c>
       <c r="E65">
-        <v>0.01923429947704157</v>
+        <v>0.002865842002803996</v>
       </c>
       <c r="F65">
-        <v>-0.001703198258824088</v>
+        <v>-0.01686530833484536</v>
       </c>
       <c r="G65">
-        <v>0.07229683311032592</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0004199116842527894</v>
+      </c>
+      <c r="H65">
+        <v>-0.09001460155829361</v>
+      </c>
+      <c r="I65">
+        <v>-0.01135426573342358</v>
+      </c>
+      <c r="J65">
+        <v>-0.003537318672487856</v>
+      </c>
+      <c r="K65">
+        <v>0.0629027990607933</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.004960820621928635</v>
+        <v>0.02200337299883978</v>
       </c>
       <c r="C66">
-        <v>-0.1669132251666807</v>
+        <v>-0.1710109638393381</v>
       </c>
       <c r="D66">
-        <v>0.05374237330852218</v>
+        <v>-0.05167310772845968</v>
       </c>
       <c r="E66">
-        <v>0.03605430237738123</v>
+        <v>0.004942433708133151</v>
       </c>
       <c r="F66">
-        <v>0.01778651416828338</v>
+        <v>0.02043936568067173</v>
       </c>
       <c r="G66">
-        <v>0.1044764858716252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.007877789289647582</v>
+      </c>
+      <c r="H66">
+        <v>-0.03988089633504734</v>
+      </c>
+      <c r="I66">
+        <v>0.05684016756926422</v>
+      </c>
+      <c r="J66">
+        <v>-0.02437974375967147</v>
+      </c>
+      <c r="K66">
+        <v>0.0657459447363358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02905687700286567</v>
+        <v>0.01917278675503242</v>
       </c>
       <c r="C67">
-        <v>-0.02412710097522709</v>
+        <v>-0.05014423332191647</v>
       </c>
       <c r="D67">
-        <v>0.05938722853220874</v>
+        <v>-0.03972240458832675</v>
       </c>
       <c r="E67">
-        <v>-0.04420294611696338</v>
+        <v>0.02663805779748635</v>
       </c>
       <c r="F67">
-        <v>0.01715829029483802</v>
+        <v>-0.02030471585519341</v>
       </c>
       <c r="G67">
-        <v>0.06146269974244642</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02772253066032765</v>
+      </c>
+      <c r="H67">
+        <v>-0.04052370234770126</v>
+      </c>
+      <c r="I67">
+        <v>0.03680990742766263</v>
+      </c>
+      <c r="J67">
+        <v>0.04738925265479763</v>
+      </c>
+      <c r="K67">
+        <v>-0.0446513385098381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2948954137234879</v>
+        <v>0.2926150677655649</v>
       </c>
       <c r="C68">
-        <v>0.01363591519845444</v>
+        <v>0.07646465266036219</v>
       </c>
       <c r="D68">
-        <v>0.007967216726999725</v>
+        <v>0.02394666920157778</v>
       </c>
       <c r="E68">
-        <v>0.02762488029021382</v>
+        <v>-0.003498492048120062</v>
       </c>
       <c r="F68">
-        <v>0.001647868262380323</v>
+        <v>0.009696965255940448</v>
       </c>
       <c r="G68">
-        <v>0.008689242283966208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.05189051980040135</v>
+      </c>
+      <c r="H68">
+        <v>0.02125287247906842</v>
+      </c>
+      <c r="I68">
+        <v>0.04413589627907338</v>
+      </c>
+      <c r="J68">
+        <v>0.004623289588718164</v>
+      </c>
+      <c r="K68">
+        <v>-0.04155852788299783</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.004738448080297311</v>
+        <v>0.008911918317143561</v>
       </c>
       <c r="C69">
-        <v>-0.04943444775777314</v>
+        <v>-0.04522823451695879</v>
       </c>
       <c r="D69">
-        <v>0.05405983970115186</v>
+        <v>-0.02419862878103795</v>
       </c>
       <c r="E69">
-        <v>-0.03175079229963449</v>
+        <v>-0.003910826050347623</v>
       </c>
       <c r="F69">
-        <v>-0.0002857074766500032</v>
+        <v>0.002467354149247059</v>
       </c>
       <c r="G69">
-        <v>0.02582626957686524</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.009007608831816798</v>
+      </c>
+      <c r="H69">
+        <v>-0.02193750089529796</v>
+      </c>
+      <c r="I69">
+        <v>0.02988244746420801</v>
+      </c>
+      <c r="J69">
+        <v>0.0291712070476534</v>
+      </c>
+      <c r="K69">
+        <v>-0.01706510864536622</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2893984792535087</v>
+        <v>0.2745976904229924</v>
       </c>
       <c r="C71">
-        <v>0.03142874344805791</v>
+        <v>0.08014094814990809</v>
       </c>
       <c r="D71">
-        <v>-0.008647556560177884</v>
+        <v>0.02202002754770359</v>
       </c>
       <c r="E71">
-        <v>0.02526168641412225</v>
+        <v>0.04132504799821332</v>
       </c>
       <c r="F71">
-        <v>-0.01899987213976478</v>
+        <v>0.01001555534255306</v>
       </c>
       <c r="G71">
-        <v>-0.007600456097229053</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.05623768392299396</v>
+      </c>
+      <c r="H71">
+        <v>0.01795406808746487</v>
+      </c>
+      <c r="I71">
+        <v>0.05283503309326947</v>
+      </c>
+      <c r="J71">
+        <v>0.03137875924195913</v>
+      </c>
+      <c r="K71">
+        <v>-0.1084072794590414</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.006712607409305541</v>
+        <v>0.05481558716145735</v>
       </c>
       <c r="C72">
-        <v>-0.1450286524722409</v>
+        <v>-0.1366537210661926</v>
       </c>
       <c r="D72">
-        <v>0.07021080244111459</v>
+        <v>-0.04752781723773818</v>
       </c>
       <c r="E72">
-        <v>-0.01317178341556742</v>
+        <v>-0.06483475729339805</v>
       </c>
       <c r="F72">
-        <v>-0.0502970550822871</v>
+        <v>-0.01174566852533916</v>
       </c>
       <c r="G72">
-        <v>0.1266765091608936</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.0006523211398776681</v>
+      </c>
+      <c r="H72">
+        <v>-0.003812006240060326</v>
+      </c>
+      <c r="I72">
+        <v>0.05349302597667232</v>
+      </c>
+      <c r="J72">
+        <v>0.0024088502253817</v>
+      </c>
+      <c r="K72">
+        <v>0.1063531555896245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.06253790796330339</v>
+        <v>0.1564374243692182</v>
       </c>
       <c r="C73">
-        <v>-0.09485174497536536</v>
+        <v>-0.1972245313912928</v>
       </c>
       <c r="D73">
-        <v>0.1155643376853254</v>
+        <v>-0.08290917926913542</v>
       </c>
       <c r="E73">
-        <v>-0.1817418544360325</v>
+        <v>-0.1797926516362295</v>
       </c>
       <c r="F73">
-        <v>0.1863141776285882</v>
+        <v>-0.09680725823684436</v>
       </c>
       <c r="G73">
-        <v>0.3423634561396872</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1618220236481731</v>
+      </c>
+      <c r="H73">
+        <v>-0.3366037983024289</v>
+      </c>
+      <c r="I73">
+        <v>-0.3242525937890886</v>
+      </c>
+      <c r="J73">
+        <v>0.001626227718443547</v>
+      </c>
+      <c r="K73">
+        <v>-0.1401840433710721</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.008009995671250261</v>
+        <v>0.03879641904280568</v>
       </c>
       <c r="C74">
-        <v>-0.08042253818800241</v>
+        <v>-0.09758235855021516</v>
       </c>
       <c r="D74">
-        <v>0.0721938068046301</v>
+        <v>-0.04611259306694995</v>
       </c>
       <c r="E74">
-        <v>-0.0699681753281864</v>
+        <v>-0.03768549098481144</v>
       </c>
       <c r="F74">
-        <v>0.04532172520638288</v>
+        <v>-0.02805090415420833</v>
       </c>
       <c r="G74">
-        <v>-0.04168304908553978</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.0002393119031949011</v>
+      </c>
+      <c r="H74">
+        <v>0.05296177835559121</v>
+      </c>
+      <c r="I74">
+        <v>0.0144055193830104</v>
+      </c>
+      <c r="J74">
+        <v>0.02383222196195761</v>
+      </c>
+      <c r="K74">
+        <v>0.01271423959885348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03451544808939196</v>
+        <v>0.06302101971666639</v>
       </c>
       <c r="C75">
-        <v>-0.1448014037794317</v>
+        <v>-0.1633488535973734</v>
       </c>
       <c r="D75">
-        <v>0.08096502103307926</v>
+        <v>-0.08361591131086279</v>
       </c>
       <c r="E75">
-        <v>-0.1508346608522526</v>
+        <v>-0.05502140719456387</v>
       </c>
       <c r="F75">
-        <v>0.04877907152801948</v>
+        <v>-0.0672063213963157</v>
       </c>
       <c r="G75">
-        <v>-0.1757405594973813</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.06275299499346242</v>
+      </c>
+      <c r="H75">
+        <v>0.2188695462248549</v>
+      </c>
+      <c r="I75">
+        <v>0.02631342577954355</v>
+      </c>
+      <c r="J75">
+        <v>-0.03215178446021114</v>
+      </c>
+      <c r="K75">
+        <v>-0.1215378188056253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.01162814068512796</v>
+        <v>0.04538759046804684</v>
       </c>
       <c r="C76">
-        <v>-0.1079768832339314</v>
+        <v>-0.1259323447063425</v>
       </c>
       <c r="D76">
-        <v>0.06436438149388309</v>
+        <v>-0.07485836309342475</v>
       </c>
       <c r="E76">
-        <v>-0.08663864125286737</v>
+        <v>-0.05213543146180433</v>
       </c>
       <c r="F76">
-        <v>0.06165270696747736</v>
+        <v>-0.01848135164289648</v>
       </c>
       <c r="G76">
-        <v>-0.04401809854526607</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.0616743404129396</v>
+      </c>
+      <c r="H76">
+        <v>0.08052800683247169</v>
+      </c>
+      <c r="I76">
+        <v>0.00313273417599677</v>
+      </c>
+      <c r="J76">
+        <v>-0.040108554791795</v>
+      </c>
+      <c r="K76">
+        <v>0.02857029904129899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08872186233390543</v>
+        <v>0.0578024631982017</v>
       </c>
       <c r="C77">
-        <v>-0.3924037922871816</v>
+        <v>-0.403726987419983</v>
       </c>
       <c r="D77">
-        <v>-0.8304962647177563</v>
+        <v>0.8971681271996107</v>
       </c>
       <c r="E77">
-        <v>-0.272388660310685</v>
+        <v>-0.009061576663691371</v>
       </c>
       <c r="F77">
-        <v>0.1100992995786056</v>
+        <v>-0.04627633235231569</v>
       </c>
       <c r="G77">
-        <v>0.03648577980325623</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.06367126780008672</v>
+      </c>
+      <c r="H77">
+        <v>0.03334466302591584</v>
+      </c>
+      <c r="I77">
+        <v>0.07527648202628463</v>
+      </c>
+      <c r="J77">
+        <v>-0.03802796726065408</v>
+      </c>
+      <c r="K77">
+        <v>-0.02101618491605307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02437545992722431</v>
+        <v>0.03791436450608371</v>
       </c>
       <c r="C78">
-        <v>-0.1233854096205909</v>
+        <v>-0.113275338989263</v>
       </c>
       <c r="D78">
-        <v>0.1884052977421782</v>
+        <v>-0.09619591755194186</v>
       </c>
       <c r="E78">
-        <v>0.08603754616758043</v>
+        <v>0.02162306048082102</v>
       </c>
       <c r="F78">
-        <v>0.1414920300654227</v>
+        <v>0.05238102321404486</v>
       </c>
       <c r="G78">
-        <v>-0.1251349544691849</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.031970313045879</v>
+      </c>
+      <c r="H78">
+        <v>0.1162703930583551</v>
+      </c>
+      <c r="I78">
+        <v>0.04478187896261333</v>
+      </c>
+      <c r="J78">
+        <v>0.08599412865660165</v>
+      </c>
+      <c r="K78">
+        <v>0.07653342823410846</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.01872359518867026</v>
+        <v>0.05693465440763677</v>
       </c>
       <c r="C79">
-        <v>-0.1648887120901902</v>
+        <v>-0.1405237783521205</v>
       </c>
       <c r="D79">
-        <v>0.1162148043720514</v>
+        <v>-0.06886207082270548</v>
       </c>
       <c r="E79">
-        <v>-0.1147726156124328</v>
+        <v>-0.0541721152593032</v>
       </c>
       <c r="F79">
-        <v>0.09718859761850415</v>
+        <v>-0.005767245800321879</v>
       </c>
       <c r="G79">
-        <v>-0.2680654288370322</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.03352519275327364</v>
+      </c>
+      <c r="H79">
+        <v>0.2597911201796801</v>
+      </c>
+      <c r="I79">
+        <v>0.042622680972278</v>
+      </c>
+      <c r="J79">
+        <v>0.03669118136765653</v>
+      </c>
+      <c r="K79">
+        <v>-0.05183075737533673</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.007567193378362341</v>
+        <v>0.02009490018942978</v>
       </c>
       <c r="C80">
-        <v>-0.05220932423156248</v>
+        <v>-0.04403823366114041</v>
       </c>
       <c r="D80">
-        <v>0.05019186567720954</v>
+        <v>-0.03758986538825602</v>
       </c>
       <c r="E80">
-        <v>0.04085931911577381</v>
+        <v>0.008907858528651733</v>
       </c>
       <c r="F80">
-        <v>0.01140536690840919</v>
+        <v>0.05842332474394418</v>
       </c>
       <c r="G80">
-        <v>0.008255215829544135</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.005283840554791399</v>
+      </c>
+      <c r="H80">
+        <v>-0.07569449728056186</v>
+      </c>
+      <c r="I80">
+        <v>-0.0410012135252781</v>
+      </c>
+      <c r="J80">
+        <v>0.001769350760135943</v>
+      </c>
+      <c r="K80">
+        <v>-0.03549837219211192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.0005847029554029416</v>
+        <v>0.0166918102001757</v>
       </c>
       <c r="C81">
-        <v>-0.07738629425464452</v>
+        <v>-0.09596048729000857</v>
       </c>
       <c r="D81">
-        <v>0.07203728354973621</v>
+        <v>-0.05672698776735417</v>
       </c>
       <c r="E81">
-        <v>-0.08110560019611034</v>
+        <v>-0.03908056976053577</v>
       </c>
       <c r="F81">
-        <v>0.05756170247483066</v>
+        <v>0.0003461479858319003</v>
       </c>
       <c r="G81">
-        <v>-0.08045093431787072</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02399683796610274</v>
+      </c>
+      <c r="H81">
+        <v>0.1082070920904965</v>
+      </c>
+      <c r="I81">
+        <v>0.06293630371362083</v>
+      </c>
+      <c r="J81">
+        <v>0.03148413838726321</v>
+      </c>
+      <c r="K81">
+        <v>-0.03344864036462405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01342324692840188</v>
+        <v>0.04584750047945639</v>
       </c>
       <c r="C82">
-        <v>-0.07790505916612957</v>
+        <v>-0.1049422154382038</v>
       </c>
       <c r="D82">
-        <v>0.07287143918453975</v>
+        <v>-0.06536422610163763</v>
       </c>
       <c r="E82">
-        <v>-0.09229516631682805</v>
+        <v>-0.0447633992559696</v>
       </c>
       <c r="F82">
-        <v>0.05061817992511567</v>
+        <v>-0.005138451432387374</v>
       </c>
       <c r="G82">
-        <v>-0.03390266697516892</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.06164578305183365</v>
+      </c>
+      <c r="H82">
+        <v>0.07843075189830666</v>
+      </c>
+      <c r="I82">
+        <v>0.02387404065211034</v>
+      </c>
+      <c r="J82">
+        <v>-0.02743133148070169</v>
+      </c>
+      <c r="K82">
+        <v>-0.00256851243632586</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.004165915734401732</v>
+        <v>-0.0009333265147741047</v>
       </c>
       <c r="C83">
-        <v>-0.02052090597176506</v>
+        <v>0.02318216202621716</v>
       </c>
       <c r="D83">
-        <v>-0.1313410932300269</v>
+        <v>0.05987883358172526</v>
       </c>
       <c r="E83">
-        <v>0.5919707355271711</v>
+        <v>-0.3152795315736335</v>
       </c>
       <c r="F83">
-        <v>0.699764152160615</v>
+        <v>0.9084487675051935</v>
       </c>
       <c r="G83">
-        <v>-0.0837865845711744</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.02293451297459314</v>
+      </c>
+      <c r="H83">
+        <v>0.01360774837699067</v>
+      </c>
+      <c r="I83">
+        <v>-0.07379664171617972</v>
+      </c>
+      <c r="J83">
+        <v>-0.0938346708824926</v>
+      </c>
+      <c r="K83">
+        <v>0.04384331977486153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.01288117735863923</v>
+        <v>0.01376500973382997</v>
       </c>
       <c r="C84">
-        <v>-0.08918294691060935</v>
+        <v>-0.0648208829467137</v>
       </c>
       <c r="D84">
-        <v>0.03839708689625032</v>
+        <v>-0.08908052563141655</v>
       </c>
       <c r="E84">
-        <v>0.06391343703681791</v>
+        <v>0.3861668956209847</v>
       </c>
       <c r="F84">
-        <v>-0.1423482401046866</v>
+        <v>0.09342698743888318</v>
       </c>
       <c r="G84">
-        <v>-0.01938429680704037</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.166434649104144</v>
+      </c>
+      <c r="H84">
+        <v>-0.1182974049934997</v>
+      </c>
+      <c r="I84">
+        <v>0.1773039969496091</v>
+      </c>
+      <c r="J84">
+        <v>-0.8039585003033356</v>
+      </c>
+      <c r="K84">
+        <v>-0.1508983508120505</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.002927884807938686</v>
+        <v>0.03048796208035434</v>
       </c>
       <c r="C85">
-        <v>-0.1119845684868924</v>
+        <v>-0.1159495126059131</v>
       </c>
       <c r="D85">
-        <v>0.08014584571567722</v>
+        <v>-0.08245364943394519</v>
       </c>
       <c r="E85">
-        <v>-0.1004440413996169</v>
+        <v>-0.0863380620548211</v>
       </c>
       <c r="F85">
-        <v>0.08146785948597401</v>
+        <v>-0.02665005735488802</v>
       </c>
       <c r="G85">
-        <v>-0.1896979632443974</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.08242043727843769</v>
+      </c>
+      <c r="H85">
+        <v>0.2306105354111034</v>
+      </c>
+      <c r="I85">
+        <v>0.01678167996825611</v>
+      </c>
+      <c r="J85">
+        <v>-0.04323014201357566</v>
+      </c>
+      <c r="K85">
+        <v>-0.06196167182624643</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01833634398654745</v>
+        <v>0.01456762889199946</v>
       </c>
       <c r="C86">
-        <v>-0.08121888344118312</v>
+        <v>-0.07768002841939739</v>
       </c>
       <c r="D86">
-        <v>-0.004562383052177287</v>
+        <v>-0.03098847673216683</v>
       </c>
       <c r="E86">
-        <v>0.01074941403689061</v>
+        <v>0.07789128116553568</v>
       </c>
       <c r="F86">
-        <v>-0.02197782995642755</v>
+        <v>0.04281317702140622</v>
       </c>
       <c r="G86">
-        <v>0.07191705272294084</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.03695059366171918</v>
+      </c>
+      <c r="H86">
+        <v>0.05139020175304142</v>
+      </c>
+      <c r="I86">
+        <v>-0.03668487238859112</v>
+      </c>
+      <c r="J86">
+        <v>0.1299437818240065</v>
+      </c>
+      <c r="K86">
+        <v>-0.1314719887973209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.02017164423408013</v>
+        <v>0.02694390611201593</v>
       </c>
       <c r="C87">
-        <v>-0.1567264408595657</v>
+        <v>-0.1174414019866405</v>
       </c>
       <c r="D87">
-        <v>0.04003416975062998</v>
+        <v>-0.02044629318455446</v>
       </c>
       <c r="E87">
-        <v>0.08629858287052432</v>
+        <v>-0.005083195712621444</v>
       </c>
       <c r="F87">
-        <v>-0.05181996518916484</v>
+        <v>0.01130618827329751</v>
       </c>
       <c r="G87">
-        <v>-0.01040886093932463</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.06174526896525556</v>
+      </c>
+      <c r="H87">
+        <v>0.005698542616705137</v>
+      </c>
+      <c r="I87">
+        <v>0.0517174177988592</v>
+      </c>
+      <c r="J87">
+        <v>-0.02210781528450206</v>
+      </c>
+      <c r="K87">
+        <v>0.0967574882599609</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.005169831193005978</v>
+        <v>0.03975664061667222</v>
       </c>
       <c r="C88">
-        <v>-0.03286848311338935</v>
+        <v>-0.05793298012527982</v>
       </c>
       <c r="D88">
-        <v>0.03700418577577176</v>
+        <v>-0.03977591904358645</v>
       </c>
       <c r="E88">
-        <v>-0.04914179183507926</v>
+        <v>-0.02556089168621396</v>
       </c>
       <c r="F88">
-        <v>0.006821196803773162</v>
+        <v>-0.01845561912610883</v>
       </c>
       <c r="G88">
-        <v>0.01811352100752459</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.001515210715656833</v>
+      </c>
+      <c r="H88">
+        <v>-0.01053423744290459</v>
+      </c>
+      <c r="I88">
+        <v>-0.0004061881886193606</v>
+      </c>
+      <c r="J88">
+        <v>0.01632847386232916</v>
+      </c>
+      <c r="K88">
+        <v>0.01592708747065208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4014841809085521</v>
+        <v>0.3905459964281056</v>
       </c>
       <c r="C89">
-        <v>0.06138383509385662</v>
+        <v>0.1209263965037075</v>
       </c>
       <c r="D89">
-        <v>0.07258200216707916</v>
+        <v>0.03734294591056405</v>
       </c>
       <c r="E89">
-        <v>0.0555775523959669</v>
+        <v>0.04408200049061711</v>
       </c>
       <c r="F89">
-        <v>-0.09163867046282574</v>
+        <v>-0.01765047995720443</v>
       </c>
       <c r="G89">
-        <v>-0.02793672978530235</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03441028091650465</v>
+      </c>
+      <c r="H89">
+        <v>-0.03770988547519194</v>
+      </c>
+      <c r="I89">
+        <v>0.00909779201600356</v>
+      </c>
+      <c r="J89">
+        <v>-0.05838336178737816</v>
+      </c>
+      <c r="K89">
+        <v>0.7431360583113721</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3070637899706534</v>
+        <v>0.3159625100942232</v>
       </c>
       <c r="C90">
-        <v>0.01474980081502288</v>
+        <v>0.078643776201568</v>
       </c>
       <c r="D90">
-        <v>0.004615037143004921</v>
+        <v>0.01896898501276793</v>
       </c>
       <c r="E90">
-        <v>0.07446480839450487</v>
+        <v>0.01568000292395913</v>
       </c>
       <c r="F90">
-        <v>0.04510912019493307</v>
+        <v>0.01766544948136067</v>
       </c>
       <c r="G90">
-        <v>0.03133510875064696</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02268839548547186</v>
+      </c>
+      <c r="H90">
+        <v>-0.00289055221333713</v>
+      </c>
+      <c r="I90">
+        <v>0.01452605984350784</v>
+      </c>
+      <c r="J90">
+        <v>-0.01666170110170066</v>
+      </c>
+      <c r="K90">
+        <v>-0.09587092667792138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02012159648232616</v>
+        <v>0.05460436661555271</v>
       </c>
       <c r="C91">
-        <v>-0.0800282601169167</v>
+        <v>-0.0782343546742079</v>
       </c>
       <c r="D91">
-        <v>0.06358125659894247</v>
+        <v>-0.05327998063190607</v>
       </c>
       <c r="E91">
-        <v>-0.05446436707407268</v>
+        <v>-0.06549168406483978</v>
       </c>
       <c r="F91">
-        <v>0.0645655153097789</v>
+        <v>0.01600519914014126</v>
       </c>
       <c r="G91">
-        <v>-0.06976142631564834</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02407236083056766</v>
+      </c>
+      <c r="H91">
+        <v>0.08954867310102191</v>
+      </c>
+      <c r="I91">
+        <v>-0.007126585997219116</v>
+      </c>
+      <c r="J91">
+        <v>-0.02190623948956241</v>
+      </c>
+      <c r="K91">
+        <v>-0.002087349184194219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3847836649232904</v>
+        <v>0.350298441468104</v>
       </c>
       <c r="C92">
-        <v>0.05481597477965017</v>
+        <v>0.1247551731343585</v>
       </c>
       <c r="D92">
-        <v>-0.01536941178448004</v>
+        <v>0.05526701754847228</v>
       </c>
       <c r="E92">
-        <v>-0.01584109433390374</v>
+        <v>0.04010193239883122</v>
       </c>
       <c r="F92">
-        <v>-0.1190028742399638</v>
+        <v>-0.02421314933245986</v>
       </c>
       <c r="G92">
-        <v>-0.02293785628422716</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.05023408430237007</v>
+      </c>
+      <c r="H92">
+        <v>0.01193039079546343</v>
+      </c>
+      <c r="I92">
+        <v>0.05960188274086046</v>
+      </c>
+      <c r="J92">
+        <v>0.03600837256489822</v>
+      </c>
+      <c r="K92">
+        <v>-0.1407458190683054</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3071488944156412</v>
+        <v>0.3067904479390266</v>
       </c>
       <c r="C93">
-        <v>0.06640124371977799</v>
+        <v>0.1218113568330556</v>
       </c>
       <c r="D93">
-        <v>0.01169514110806641</v>
+        <v>0.007344800632557279</v>
       </c>
       <c r="E93">
-        <v>0.0696883166110018</v>
+        <v>0.04887795158904397</v>
       </c>
       <c r="F93">
-        <v>-0.03772236122086293</v>
+        <v>0.01752075931496748</v>
       </c>
       <c r="G93">
-        <v>-0.007450649217148064</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02414183297835797</v>
+      </c>
+      <c r="H93">
+        <v>0.03500726995376203</v>
+      </c>
+      <c r="I93">
+        <v>0.02326449538662963</v>
+      </c>
+      <c r="J93">
+        <v>0.02545573611049405</v>
+      </c>
+      <c r="K93">
+        <v>-0.1140607480677584</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02805139232505881</v>
+        <v>0.08256986663198236</v>
       </c>
       <c r="C94">
-        <v>-0.1936877999430279</v>
+        <v>-0.1641081015686905</v>
       </c>
       <c r="D94">
-        <v>0.1412804289733438</v>
+        <v>-0.1130080015577948</v>
       </c>
       <c r="E94">
-        <v>-0.1669272718452835</v>
+        <v>-0.0977154937537156</v>
       </c>
       <c r="F94">
-        <v>0.08436582913573294</v>
+        <v>-0.01655013943815168</v>
       </c>
       <c r="G94">
-        <v>-0.5839933482917139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.09959118794474144</v>
+      </c>
+      <c r="H94">
+        <v>0.5544807558322773</v>
+      </c>
+      <c r="I94">
+        <v>-0.1531745286483864</v>
+      </c>
+      <c r="J94">
+        <v>-0.1307482261653439</v>
+      </c>
+      <c r="K94">
+        <v>0.05013489971679367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.01563696779885366</v>
+        <v>0.04414439891921137</v>
       </c>
       <c r="C95">
-        <v>-0.112368564303201</v>
+        <v>-0.1304496647861834</v>
       </c>
       <c r="D95">
-        <v>0.05043819174542569</v>
+        <v>-0.06620432344325439</v>
       </c>
       <c r="E95">
-        <v>-0.04740145652322787</v>
+        <v>-0.0255642627504708</v>
       </c>
       <c r="F95">
-        <v>0.09072727182919343</v>
+        <v>-0.04265092901587195</v>
       </c>
       <c r="G95">
-        <v>0.05503957291819791</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.07486050930635914</v>
+      </c>
+      <c r="H95">
+        <v>-0.04930572285271835</v>
+      </c>
+      <c r="I95">
+        <v>0.06720975660623441</v>
+      </c>
+      <c r="J95">
+        <v>-0.09862786129836483</v>
+      </c>
+      <c r="K95">
+        <v>0.1732094914953414</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.0003056128818910897</v>
+        <v>0.02012061514493294</v>
       </c>
       <c r="C97">
-        <v>0.0005204712259463774</v>
+        <v>-0.02357109235879156</v>
       </c>
       <c r="D97">
-        <v>0.000197278908678505</v>
+        <v>0.008185781473810598</v>
       </c>
       <c r="E97">
-        <v>-0.004681757537713578</v>
+        <v>0.04855760382057824</v>
       </c>
       <c r="F97">
-        <v>-0.001041986965627997</v>
+        <v>-0.009796935499406335</v>
       </c>
       <c r="G97">
-        <v>0.004871516572310009</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.04512547839036692</v>
+      </c>
+      <c r="H97">
+        <v>-0.03124522896561426</v>
+      </c>
+      <c r="I97">
+        <v>-0.0220386509636408</v>
+      </c>
+      <c r="J97">
+        <v>0.0569738778095803</v>
+      </c>
+      <c r="K97">
+        <v>0.04822700212930399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.07890182174569609</v>
+        <v>0.1379510750490059</v>
       </c>
       <c r="C98">
-        <v>-0.1352093458534933</v>
+        <v>-0.15931713674999</v>
       </c>
       <c r="D98">
-        <v>0.1425043631484347</v>
+        <v>-0.08882358476139984</v>
       </c>
       <c r="E98">
-        <v>-0.1276990631809702</v>
+        <v>-0.1961524174189977</v>
       </c>
       <c r="F98">
-        <v>0.1227453399410437</v>
+        <v>-0.07348733983090426</v>
       </c>
       <c r="G98">
-        <v>0.2130322347815898</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1461338502915129</v>
+      </c>
+      <c r="H98">
+        <v>-0.2626416197058088</v>
+      </c>
+      <c r="I98">
+        <v>-0.328988754463201</v>
+      </c>
+      <c r="J98">
+        <v>-0.03401215627619222</v>
+      </c>
+      <c r="K98">
+        <v>-0.1464583177608348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02731857628442299</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.07290724849724896</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01039872977963316</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.6216940383596155</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.2128235893017357</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.5542665081935347</v>
+      </c>
+      <c r="H99">
+        <v>0.02564487303145535</v>
+      </c>
+      <c r="I99">
+        <v>-0.2494309545188685</v>
+      </c>
+      <c r="J99">
+        <v>0.3398315838039894</v>
+      </c>
+      <c r="K99">
+        <v>0.07428280576764643</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.007514965794595477</v>
+        <v>0.01750651872999296</v>
       </c>
       <c r="C101">
-        <v>-0.07613250020954214</v>
+        <v>-0.08124519449835542</v>
       </c>
       <c r="D101">
-        <v>0.05005667473737643</v>
+        <v>-0.04852543798625342</v>
       </c>
       <c r="E101">
-        <v>0.01431723884775518</v>
+        <v>-0.01856888052251033</v>
       </c>
       <c r="F101">
-        <v>0.02385060715310917</v>
+        <v>0.04564908975143334</v>
       </c>
       <c r="G101">
-        <v>0.1179598609531541</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01039247102844691</v>
+      </c>
+      <c r="H101">
+        <v>-0.158892077182392</v>
+      </c>
+      <c r="I101">
+        <v>0.2570512403010963</v>
+      </c>
+      <c r="J101">
+        <v>0.0587082166519643</v>
+      </c>
+      <c r="K101">
+        <v>0.01243078302897578</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.003350701472703814</v>
+        <v>0.001651455074305016</v>
       </c>
       <c r="C102">
-        <v>-0.01667849627756397</v>
+        <v>-0.006502337991763579</v>
       </c>
       <c r="D102">
-        <v>-0.0008264773701973004</v>
+        <v>0.002087045561029649</v>
       </c>
       <c r="E102">
-        <v>-0.01731688119639284</v>
+        <v>-0.004214004293009128</v>
       </c>
       <c r="F102">
-        <v>0.01806723783338486</v>
+        <v>0.0002103163616213493</v>
       </c>
       <c r="G102">
-        <v>-0.007775942801332025</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.002109695573079018</v>
+      </c>
+      <c r="H102">
+        <v>0.004848060753984771</v>
+      </c>
+      <c r="I102">
+        <v>0.006964188896107316</v>
+      </c>
+      <c r="J102">
+        <v>0.003998865720876628</v>
+      </c>
+      <c r="K102">
+        <v>0.01382330739339354</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
